--- a/LEDCon Production Files/LEDCON.PCB.BOM.xlsx
+++ b/LEDCon Production Files/LEDCON.PCB.BOM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>Qty</t>
   </si>
@@ -23,9 +23,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Device</t>
-  </si>
-  <si>
     <t>Package</t>
   </si>
   <si>
@@ -77,7 +74,154 @@
     <t>DF12(3.0)-40DP-0.5V(86)</t>
   </si>
   <si>
-    <t>FIDUCIAL</t>
+    <t>MATE-N-LOK_643230-1</t>
+  </si>
+  <si>
+    <t>U$1</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>643230-1</t>
+  </si>
+  <si>
+    <t>SOT223</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>OnSemi</t>
+  </si>
+  <si>
+    <t>NCP1117ST33T3G</t>
+  </si>
+  <si>
+    <t>RA_BUTTON</t>
+  </si>
+  <si>
+    <t>U$9</t>
+  </si>
+  <si>
+    <t>2-1825027-0</t>
+  </si>
+  <si>
+    <t>PLCC4_SMALL</t>
+  </si>
+  <si>
+    <t>U$5</t>
+  </si>
+  <si>
+    <t>Cree, Inc.</t>
+  </si>
+  <si>
+    <t>CLV1A-FKB-CK1N1G1BB7R4S3</t>
+  </si>
+  <si>
+    <t>ESWITCH-TL3301PF</t>
+  </si>
+  <si>
+    <t>U$2</t>
+  </si>
+  <si>
+    <t>E-Switch</t>
+  </si>
+  <si>
+    <t>TL3301PF160QG</t>
+  </si>
+  <si>
+    <t>PW_R-PDSO-G14</t>
+  </si>
+  <si>
+    <t>U$6</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>TXB0104PWR</t>
+  </si>
+  <si>
+    <t>SO14</t>
+  </si>
+  <si>
+    <t>U$8</t>
+  </si>
+  <si>
+    <t>WorldSemi</t>
+  </si>
+  <si>
+    <t>WS2801</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>RF-C0805</t>
+  </si>
+  <si>
+    <t>U$7</t>
+  </si>
+  <si>
+    <t>Vishay Dale</t>
+  </si>
+  <si>
+    <t>CRCW080510K0FKEA</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>C0805</t>
+  </si>
+  <si>
+    <t>U$11</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>C2012X5R1E105K125AA</t>
+  </si>
+  <si>
+    <t>68k</t>
+  </si>
+  <si>
+    <t>U$20, U$21</t>
+  </si>
+  <si>
+    <t>CRCW080568K0FKEA</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>U$10, U$22, U$23</t>
+  </si>
+  <si>
+    <t>C2012X5R1H104K085AA</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>U$12, U$13, U$24</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>GRM219R61E106KA12D</t>
+  </si>
+  <si>
+    <t>24Ohm</t>
+  </si>
+  <si>
+    <t>U$15, U$16, U$17</t>
+  </si>
+  <si>
+    <t>CRCW080524R0FKEA</t>
   </si>
   <si>
     <t>FIDUCIAL_1MM</t>
@@ -87,171 +231,6 @@
   </si>
   <si>
     <t>DNP</t>
-  </si>
-  <si>
-    <t>MATE-N-LOK_643230-1</t>
-  </si>
-  <si>
-    <t>U$1</t>
-  </si>
-  <si>
-    <t>TE Connectivity</t>
-  </si>
-  <si>
-    <t>643230-1</t>
-  </si>
-  <si>
-    <t>NCP1117ST33T3G_1</t>
-  </si>
-  <si>
-    <t>SOT223</t>
-  </si>
-  <si>
-    <t>IC1</t>
-  </si>
-  <si>
-    <t>OnSemi</t>
-  </si>
-  <si>
-    <t>NCP1117ST33T3G</t>
-  </si>
-  <si>
-    <t>RA_BUTTON</t>
-  </si>
-  <si>
-    <t>U$9</t>
-  </si>
-  <si>
-    <t>2-1825027-0</t>
-  </si>
-  <si>
-    <t>RGLBED</t>
-  </si>
-  <si>
-    <t>RGBLED</t>
-  </si>
-  <si>
-    <t>U$5</t>
-  </si>
-  <si>
-    <t>Cree, Inc.</t>
-  </si>
-  <si>
-    <t>CLV1A-FKB-CK1N1G1BB7R4S3</t>
-  </si>
-  <si>
-    <t>SWITCH-TACTILE</t>
-  </si>
-  <si>
-    <t>ESWITCH-TL3301PF</t>
-  </si>
-  <si>
-    <t>U$2</t>
-  </si>
-  <si>
-    <t>E-Switch</t>
-  </si>
-  <si>
-    <t>TL3301PF160QG</t>
-  </si>
-  <si>
-    <t>TXB0104</t>
-  </si>
-  <si>
-    <t>PW_R-PDSO-G14</t>
-  </si>
-  <si>
-    <t>U$6</t>
-  </si>
-  <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
-    <t>TXB0104PWR</t>
-  </si>
-  <si>
-    <t>WS2801</t>
-  </si>
-  <si>
-    <t>SO14</t>
-  </si>
-  <si>
-    <t>U$8</t>
-  </si>
-  <si>
-    <t>WorldSemi</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>RF-C0805</t>
-  </si>
-  <si>
-    <t>C0805</t>
-  </si>
-  <si>
-    <t>U$10, U$22, U$23</t>
-  </si>
-  <si>
-    <t>TDK</t>
-  </si>
-  <si>
-    <t>C2012X5R1H104K085AA</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>RF-R0805</t>
-  </si>
-  <si>
-    <t>U$7</t>
-  </si>
-  <si>
-    <t>Vishay Dale</t>
-  </si>
-  <si>
-    <t>CRCW080510K0FKEA</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>U$12, U$13, U$24</t>
-  </si>
-  <si>
-    <t>Murata</t>
-  </si>
-  <si>
-    <t>GRM219R61E106KA12D</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>U$11</t>
-  </si>
-  <si>
-    <t>C2012X5R1E105K125AA</t>
-  </si>
-  <si>
-    <t>24Ohm</t>
-  </si>
-  <si>
-    <t>U$15, U$16, U$17</t>
-  </si>
-  <si>
-    <t>CRCW080524R0FKEA</t>
-  </si>
-  <si>
-    <t>68k</t>
-  </si>
-  <si>
-    <t>U$20, U$21</t>
-  </si>
-  <si>
-    <t>CRCW080568K0FKEA</t>
   </si>
 </sst>
 </file>
@@ -358,22 +337,21 @@
     <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:B"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.53571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="26.2040816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.6071428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.6683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.3775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.78571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.87244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.0765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.0255102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.3163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -398,17 +376,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>8</v>
@@ -419,16 +393,13 @@
       <c r="F2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>12</v>
@@ -439,16 +410,13 @@
       <c r="F3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>16</v>
@@ -459,25 +427,22 @@
       <c r="F4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -485,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>24</v>
@@ -496,28 +461,22 @@
       <c r="F6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -525,19 +484,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,19 +501,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -565,19 +518,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -585,85 +535,76 @@
         <v>1</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="B12" s="0" t="s">
+        <v>46</v>
+      </c>
       <c r="C12" s="0" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,45 +612,39 @@
         <v>3</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -717,45 +652,33 @@
         <v>3</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/LEDCon Production Files/LEDCON.PCB.BOM.xlsx
+++ b/LEDCon Production Files/LEDCON.PCB.BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="110">
   <si>
     <t>Part</t>
   </si>
@@ -305,39 +305,6 @@
   </si>
   <si>
     <t>MICROSMD050F-2</t>
-  </si>
-  <si>
-    <t>U$14</t>
-  </si>
-  <si>
-    <t>FIDUCIAL</t>
-  </si>
-  <si>
-    <t>FIDUCIAL_1MM</t>
-  </si>
-  <si>
-    <t>For use by pick and place machines to calibrate the vision/machine</t>
-  </si>
-  <si>
-    <t> 1mm</t>
-  </si>
-  <si>
-    <t>DNP</t>
-  </si>
-  <si>
-    <t>U$18</t>
-  </si>
-  <si>
-    <t>U$25</t>
-  </si>
-  <si>
-    <t>U$26</t>
-  </si>
-  <si>
-    <t>U$27</t>
-  </si>
-  <si>
-    <t>U$28</t>
   </si>
   <si>
     <t>U1</t>
@@ -478,15 +445,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:K33"/>
+  <dimension ref="A3:J27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6836734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0408163265306"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="20.9948979591837"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="69.6173469387755"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.2959183673469"/>
@@ -981,183 +948,63 @@
       <c r="A25" s="0" t="s">
         <v>95</v>
       </c>
+      <c r="B25" s="0" t="s">
+        <v>96</v>
+      </c>
       <c r="C25" s="0" t="s">
         <v>96</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="F25" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>100</v>
+      <c r="G25" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>98</v>
-      </c>
       <c r="F26" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>105</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="G27" s="0" t="s">
         <v>109</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
